--- a/OSALS-dao/src/test/resources/Software17_Student_JavaEE.xlsx
+++ b/OSALS-dao/src/test/resources/Software17_Student_JavaEE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\IdeaProjects\OSALS\OSALS-dao\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="169">
   <si>
     <t>序号</t>
   </si>
@@ -576,6 +576,10 @@
   <si>
     <t>软件172</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +710,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,8 +1032,8 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>2017</v>
+      <c r="B2" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1051,8 +1058,8 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>2017</v>
+      <c r="B3" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -1075,8 +1082,8 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>2017</v>
+      <c r="B4" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -1099,8 +1106,8 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>2017</v>
+      <c r="B5" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
@@ -1123,8 +1130,8 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>2017</v>
+      <c r="B6" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1147,8 +1154,8 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>2017</v>
+      <c r="B7" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1171,8 +1178,8 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>2017</v>
+      <c r="B8" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -1195,8 +1202,8 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>2017</v>
+      <c r="B9" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -1219,8 +1226,8 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>2017</v>
+      <c r="B10" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -1243,8 +1250,8 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>2017</v>
+      <c r="B11" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
@@ -1267,8 +1274,8 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>2017</v>
+      <c r="B12" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -1291,8 +1298,8 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>2017</v>
+      <c r="B13" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -1315,8 +1322,8 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>2017</v>
+      <c r="B14" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -1339,8 +1346,8 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>2017</v>
+      <c r="B15" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -1363,8 +1370,8 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>2017</v>
+      <c r="B16" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -1387,8 +1394,8 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>2017</v>
+      <c r="B17" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>8</v>
@@ -1411,8 +1418,8 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>2017</v>
+      <c r="B18" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>8</v>
@@ -1435,8 +1442,8 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>2017</v>
+      <c r="B19" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>8</v>
@@ -1459,8 +1466,8 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>2017</v>
+      <c r="B20" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -1483,8 +1490,8 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>2017</v>
+      <c r="B21" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>8</v>
@@ -1507,8 +1514,8 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>2017</v>
+      <c r="B22" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>8</v>
@@ -1531,8 +1538,8 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>2017</v>
+      <c r="B23" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>8</v>
@@ -1555,8 +1562,8 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>2017</v>
+      <c r="B24" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1579,8 +1586,8 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>2017</v>
+      <c r="B25" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>8</v>
@@ -1603,8 +1610,8 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>2017</v>
+      <c r="B26" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>8</v>
@@ -1627,8 +1634,8 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
-        <v>2017</v>
+      <c r="B27" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>8</v>
@@ -1651,8 +1658,8 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>2017</v>
+      <c r="B28" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1675,8 +1682,8 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
-        <v>2017</v>
+      <c r="B29" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>8</v>
@@ -1699,8 +1706,8 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
-        <v>2017</v>
+      <c r="B30" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>8</v>
@@ -1723,8 +1730,8 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
-        <v>2017</v>
+      <c r="B31" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>8</v>
@@ -1747,8 +1754,8 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>2017</v>
+      <c r="B32" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>8</v>
@@ -1771,8 +1778,8 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
-        <v>2017</v>
+      <c r="B33" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -1795,8 +1802,8 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
-        <v>2017</v>
+      <c r="B34" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>8</v>
@@ -1819,8 +1826,8 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
-        <v>2017</v>
+      <c r="B35" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>8</v>
@@ -1843,8 +1850,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
-        <v>2017</v>
+      <c r="B36" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>8</v>
@@ -1867,8 +1874,8 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>2017</v>
+      <c r="B37" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>8</v>
@@ -1891,8 +1898,8 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
-        <v>2017</v>
+      <c r="B38" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>84</v>
@@ -1915,8 +1922,8 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
-        <v>2017</v>
+      <c r="B39" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>8</v>
@@ -1939,8 +1946,8 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>2017</v>
+      <c r="B40" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>89</v>
@@ -1963,8 +1970,8 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
-        <v>2017</v>
+      <c r="B41" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>89</v>
@@ -1987,8 +1994,8 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
-        <v>2017</v>
+      <c r="B42" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>89</v>
@@ -2011,8 +2018,8 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
-        <v>2017</v>
+      <c r="B43" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>89</v>
@@ -2035,8 +2042,8 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
-        <v>2017</v>
+      <c r="B44" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>89</v>
@@ -2059,8 +2066,8 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
-        <v>2017</v>
+      <c r="B45" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>89</v>
@@ -2083,8 +2090,8 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
-        <v>2017</v>
+      <c r="B46" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>89</v>
@@ -2107,8 +2114,8 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
-        <v>2017</v>
+      <c r="B47" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>89</v>
@@ -2131,8 +2138,8 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
-        <v>2017</v>
+      <c r="B48" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>89</v>
@@ -2155,8 +2162,8 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
-        <v>2017</v>
+      <c r="B49" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>89</v>
@@ -2179,8 +2186,8 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
-        <v>2017</v>
+      <c r="B50" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>89</v>
@@ -2203,8 +2210,8 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
-        <v>2017</v>
+      <c r="B51" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>89</v>
@@ -2227,8 +2234,8 @@
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
-        <v>2017</v>
+      <c r="B52" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>89</v>
@@ -2251,8 +2258,8 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
-        <v>2017</v>
+      <c r="B53" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>116</v>
@@ -2275,8 +2282,8 @@
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
-        <v>2017</v>
+      <c r="B54" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>89</v>
@@ -2299,8 +2306,8 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
-        <v>2017</v>
+      <c r="B55" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>89</v>
@@ -2323,8 +2330,8 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
-        <v>2017</v>
+      <c r="B56" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>89</v>
@@ -2347,8 +2354,8 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
-        <v>2017</v>
+      <c r="B57" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>89</v>
@@ -2371,8 +2378,8 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
-        <v>2017</v>
+      <c r="B58" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>89</v>
@@ -2395,8 +2402,8 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
-        <v>2017</v>
+      <c r="B59" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>89</v>
@@ -2419,8 +2426,8 @@
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
-        <v>2017</v>
+      <c r="B60" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>89</v>
@@ -2443,8 +2450,8 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
-        <v>2017</v>
+      <c r="B61" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>89</v>
@@ -2467,8 +2474,8 @@
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
-        <v>2017</v>
+      <c r="B62" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>89</v>
@@ -2491,8 +2498,8 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
-        <v>2017</v>
+      <c r="B63" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>89</v>
@@ -2515,8 +2522,8 @@
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
-        <v>2017</v>
+      <c r="B64" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>89</v>
@@ -2539,8 +2546,8 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
-        <v>2017</v>
+      <c r="B65" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>116</v>
@@ -2563,8 +2570,8 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
-        <v>2017</v>
+      <c r="B66" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>116</v>
@@ -2587,8 +2594,8 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
-        <v>2017</v>
+      <c r="B67" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>116</v>
@@ -2611,8 +2618,8 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
-        <v>2017</v>
+      <c r="B68" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>84</v>
@@ -2635,8 +2642,8 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
-        <v>2017</v>
+      <c r="B69" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>116</v>
@@ -2659,8 +2666,8 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
-        <v>2017</v>
+      <c r="B70" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>89</v>
@@ -2683,8 +2690,8 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
-        <v>2017</v>
+      <c r="B71" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>116</v>
@@ -2707,8 +2714,8 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
-        <v>2017</v>
+      <c r="B72" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>116</v>
